--- a/src/report/var2gene_full_3_rs778801698_49524027_50524027.xlsx
+++ b/src/report/var2gene_full_3_rs778801698_49524027_50524027.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -707,7 +708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4334,12 +4335,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ZMYND10</t>
+          <t>RBM6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>rare_disease</t>
+          <t>pops</t>
         </is>
       </c>
       <c r="G57">
@@ -4387,59 +4388,59 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>rs12485600</t>
+          <t>rs778801698</t>
         </is>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>50025530</v>
+        <v>50024027</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>RBM6</t>
+          <t>ZMYND10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>inscores.aPCs</t>
+          <t>rare_disease</t>
         </is>
       </c>
       <c r="G58">
-        <v>49988097</v>
+        <v>49986594</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J58">
-        <v>0.00505255112299841</v>
+        <v>0.113624563121357</v>
       </c>
       <c r="K58">
-        <v>0.0909944</v>
+        <v>0.107858</v>
       </c>
       <c r="L58">
-        <v>0.0181827</v>
+        <v>0.0192236</v>
       </c>
       <c r="M58">
-        <v>0.534802</v>
+        <v>0.565491</v>
       </c>
       <c r="N58">
-        <v>5.52700681394417e-07</v>
+        <v>1.93263571048209e-08</v>
       </c>
       <c r="O58">
-        <v>0.465198</v>
+        <v>0.434509</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>3_50025530_A_G</t>
+          <t>3_50024027_CA_C</t>
         </is>
       </c>
     </row>
@@ -4451,14 +4452,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rs4688689</t>
+          <t>rs12485600</t>
         </is>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>50035542</v>
+        <v>50025530</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4471,39 +4472,39 @@
         </is>
       </c>
       <c r="G59">
-        <v>49998109</v>
+        <v>49988097</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J59">
-        <v>0.00545550613568777</v>
+        <v>0.00505255112299841</v>
       </c>
       <c r="K59">
-        <v>0.0912736</v>
+        <v>0.0909944</v>
       </c>
       <c r="L59">
-        <v>0.0181788</v>
+        <v>0.0181827</v>
       </c>
       <c r="M59">
-        <v>0.534682</v>
+        <v>0.534802</v>
       </c>
       <c r="N59">
-        <v>5.07364410493874e-07</v>
+        <v>5.52700681394417e-07</v>
       </c>
       <c r="O59">
-        <v>0.465318</v>
+        <v>0.465198</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>3_50035542_C_T</t>
+          <t>3_50025530_A_G</t>
         </is>
       </c>
     </row>
@@ -4515,14 +4516,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rs6765484</t>
+          <t>rs4688689</t>
         </is>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>50041313</v>
+        <v>50035542</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4535,7 +4536,7 @@
         </is>
       </c>
       <c r="G60">
-        <v>50003880</v>
+        <v>49998109</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -4548,26 +4549,26 @@
         </is>
       </c>
       <c r="J60">
-        <v>0.0103572044518846</v>
+        <v>0.00545550613568777</v>
       </c>
       <c r="K60">
-        <v>-0.09377190000000001</v>
+        <v>0.0912736</v>
       </c>
       <c r="L60">
-        <v>0.0181993</v>
+        <v>0.0181788</v>
       </c>
       <c r="M60">
-        <v>0.469343</v>
+        <v>0.534682</v>
       </c>
       <c r="N60">
-        <v>2.5376983657587e-07</v>
+        <v>5.07364410493874e-07</v>
       </c>
       <c r="O60">
-        <v>0.469343</v>
+        <v>0.465318</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>3_50041313_C_T</t>
+          <t>3_50035542_C_T</t>
         </is>
       </c>
     </row>
@@ -4579,59 +4580,59 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rs7634917</t>
+          <t>rs6765484</t>
         </is>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61">
-        <v>50049299</v>
+        <v>50041313</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NARS1</t>
+          <t>RBM6</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>pqtl_ukb</t>
+          <t>inscores.aPCs</t>
         </is>
       </c>
       <c r="G61">
-        <v>50011866</v>
+        <v>50003880</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
       <c r="J61">
-        <v>0.00544670465317718</v>
+        <v>0.0103572044518846</v>
       </c>
       <c r="K61">
-        <v>-0.0912664</v>
+        <v>-0.09377190000000001</v>
       </c>
       <c r="L61">
-        <v>0.0181786</v>
+        <v>0.0181993</v>
       </c>
       <c r="M61">
-        <v>0.465302</v>
+        <v>0.469343</v>
       </c>
       <c r="N61">
-        <v>5.08311575775353e-07</v>
+        <v>2.5376983657587e-07</v>
       </c>
       <c r="O61">
-        <v>0.465302</v>
+        <v>0.469343</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>3_50049299_T_G</t>
+          <t>3_50041313_C_T</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4655,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PRKAR2A</t>
+          <t>NARS1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4718,12 +4719,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>RBM6</t>
+          <t>PRKAR2A</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>fantom5</t>
+          <t>pqtl_ukb</t>
         </is>
       </c>
       <c r="G63">
@@ -4771,14 +4772,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>rs9861216</t>
+          <t>rs7634917</t>
         </is>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>50059339</v>
+        <v>50049299</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4787,11 +4788,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>inscores.aPCs</t>
+          <t>fantom5</t>
         </is>
       </c>
       <c r="G64">
-        <v>50021906</v>
+        <v>50011866</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -4800,30 +4801,30 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J64">
-        <v>0.00546837306121899</v>
+        <v>0.00544670465317718</v>
       </c>
       <c r="K64">
-        <v>-0.0912681</v>
+        <v>-0.0912664</v>
       </c>
       <c r="L64">
-        <v>0.0181762</v>
+        <v>0.0181786</v>
       </c>
       <c r="M64">
-        <v>0.465696</v>
+        <v>0.465302</v>
       </c>
       <c r="N64">
-        <v>5.063607098311611e-07</v>
+        <v>5.08311575775353e-07</v>
       </c>
       <c r="O64">
-        <v>0.465696</v>
+        <v>0.465302</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>3_50059339_T_C</t>
+          <t>3_50049299_T_G</t>
         </is>
       </c>
     </row>
@@ -4835,14 +4836,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>rs2526754</t>
+          <t>rs9861216</t>
         </is>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>50125996</v>
+        <v>50059339</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4855,39 +4856,39 @@
         </is>
       </c>
       <c r="G65">
-        <v>50088563</v>
+        <v>50021906</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J65">
-        <v>0.00311495027602048</v>
+        <v>0.00546837306121899</v>
       </c>
       <c r="K65">
-        <v>-0.08887539999999999</v>
+        <v>-0.0912681</v>
       </c>
       <c r="L65">
-        <v>0.0181418</v>
+        <v>0.0181762</v>
       </c>
       <c r="M65">
-        <v>0.473482</v>
+        <v>0.465696</v>
       </c>
       <c r="N65">
-        <v>9.549266197490811e-07</v>
+        <v>5.063607098311611e-07</v>
       </c>
       <c r="O65">
-        <v>0.473482</v>
+        <v>0.465696</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>3_50125996_G_A</t>
+          <t>3_50059339_T_C</t>
         </is>
       </c>
     </row>
@@ -4899,18 +4900,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rs2240326</t>
+          <t>rs2526754</t>
         </is>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66">
-        <v>50128386</v>
+        <v>50125996</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>RBM5,RBM6</t>
+          <t>RBM6</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4919,7 +4920,7 @@
         </is>
       </c>
       <c r="G66">
-        <v>50090953</v>
+        <v>50088563</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -4932,26 +4933,26 @@
         </is>
       </c>
       <c r="J66">
-        <v>0.00304602922173191</v>
+        <v>0.00311495027602048</v>
       </c>
       <c r="K66">
-        <v>-0.08879720000000001</v>
+        <v>-0.08887539999999999</v>
       </c>
       <c r="L66">
-        <v>0.0181436</v>
+        <v>0.0181418</v>
       </c>
       <c r="M66">
-        <v>0.47311</v>
+        <v>0.473482</v>
       </c>
       <c r="N66">
-        <v>9.784530694926771e-07</v>
+        <v>9.549266197490811e-07</v>
       </c>
       <c r="O66">
-        <v>0.47311</v>
+        <v>0.473482</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>3_50128386_G_A</t>
+          <t>3_50125996_G_A</t>
         </is>
       </c>
     </row>
@@ -4963,14 +4964,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rs2624853</t>
+          <t>rs2240326</t>
         </is>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67">
-        <v>50128893</v>
+        <v>50128386</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4983,39 +4984,39 @@
         </is>
       </c>
       <c r="G67">
-        <v>50091460</v>
+        <v>50090953</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
       <c r="J67">
-        <v>0.00275031446093005</v>
+        <v>0.00304602922173191</v>
       </c>
       <c r="K67">
-        <v>-0.08838500000000001</v>
+        <v>-0.08879720000000001</v>
       </c>
       <c r="L67">
-        <v>0.0181426</v>
+        <v>0.0181436</v>
       </c>
       <c r="M67">
-        <v>0.473515</v>
+        <v>0.47311</v>
       </c>
       <c r="N67">
-        <v>1.09670544578058e-06</v>
+        <v>9.784530694926771e-07</v>
       </c>
       <c r="O67">
-        <v>0.473515</v>
+        <v>0.47311</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>3_50128893_A_G</t>
+          <t>3_50128386_G_A</t>
         </is>
       </c>
     </row>
@@ -5027,14 +5028,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rs2013208</t>
+          <t>rs2624853</t>
         </is>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <v>50129399</v>
+        <v>50128893</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5043,43 +5044,43 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>fantom5</t>
+          <t>inscores.aPCs</t>
         </is>
       </c>
       <c r="G68">
-        <v>50091966</v>
+        <v>50091460</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J68">
-        <v>0.00327578382734899</v>
+        <v>0.00275031446093005</v>
       </c>
       <c r="K68">
-        <v>-0.0890889</v>
+        <v>-0.08838500000000001</v>
       </c>
       <c r="L68">
-        <v>0.0181461</v>
+        <v>0.0181426</v>
       </c>
       <c r="M68">
-        <v>0.47343</v>
+        <v>0.473515</v>
       </c>
       <c r="N68">
-        <v>9.04648776163106e-07</v>
+        <v>1.09670544578058e-06</v>
       </c>
       <c r="O68">
-        <v>0.47343</v>
+        <v>0.473515</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>3_50129399_C_T</t>
+          <t>3_50128893_A_G</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5108,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>inscores.aPCs</t>
+          <t>fantom5</t>
         </is>
       </c>
       <c r="G69">
@@ -5155,14 +5156,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>rs11130241</t>
+          <t>rs2013208</t>
         </is>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>50131459</v>
+        <v>50129399</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5175,11 +5176,11 @@
         </is>
       </c>
       <c r="G70">
-        <v>50094026</v>
+        <v>50091966</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5188,26 +5189,26 @@
         </is>
       </c>
       <c r="J70">
-        <v>0.00273859191636894</v>
+        <v>0.00327578382734899</v>
       </c>
       <c r="K70">
-        <v>-0.0885831</v>
+        <v>-0.0890889</v>
       </c>
       <c r="L70">
-        <v>0.0181522</v>
+        <v>0.0181461</v>
       </c>
       <c r="M70">
-        <v>0.472896</v>
+        <v>0.47343</v>
       </c>
       <c r="N70">
-        <v>1.05104182833665e-06</v>
+        <v>9.04648776163106e-07</v>
       </c>
       <c r="O70">
-        <v>0.472896</v>
+        <v>0.47343</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>3_50131459_A_T</t>
+          <t>3_50129399_C_T</t>
         </is>
       </c>
     </row>
@@ -5219,18 +5220,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rs766560846</t>
+          <t>rs11130241</t>
         </is>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71">
-        <v>50138580</v>
+        <v>50131459</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>RBM5(ENST00000469838.5:c.*1074_*1077delTAGT)</t>
+          <t>RBM5,RBM6</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5239,39 +5240,39 @@
         </is>
       </c>
       <c r="G71">
-        <v>50101147</v>
+        <v>50094026</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>CTAGT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="J71">
-        <v>0.00707286230501781</v>
+        <v>0.00273859191636894</v>
       </c>
       <c r="K71">
-        <v>-0.0922808</v>
+        <v>-0.0885831</v>
       </c>
       <c r="L71">
-        <v>0.0181837</v>
+        <v>0.0181522</v>
       </c>
       <c r="M71">
-        <v>0.465835</v>
+        <v>0.472896</v>
       </c>
       <c r="N71">
-        <v>3.82340232578105e-07</v>
+        <v>1.05104182833665e-06</v>
       </c>
       <c r="O71">
-        <v>0.465835</v>
+        <v>0.472896</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>3_50138580_CTAGT_C</t>
+          <t>3_50131459_A_T</t>
         </is>
       </c>
     </row>
@@ -5283,18 +5284,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>rs2856234</t>
+          <t>rs766560846</t>
         </is>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>50139142</v>
+        <v>50138580</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>RBM5(ENST00000469838.5:c.*1635A&gt;G)</t>
+          <t>RBM5(ENST00000469838.5:c.*1074_*1077delTAGT)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5303,39 +5304,39 @@
         </is>
       </c>
       <c r="G72">
-        <v>50101709</v>
+        <v>50101147</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CTAGT</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J72">
-        <v>0.00732528422940168</v>
+        <v>0.00707286230501781</v>
       </c>
       <c r="K72">
-        <v>-0.09238979999999999</v>
+        <v>-0.0922808</v>
       </c>
       <c r="L72">
-        <v>0.0181792</v>
+        <v>0.0181837</v>
       </c>
       <c r="M72">
-        <v>0.465792</v>
+        <v>0.465835</v>
       </c>
       <c r="N72">
-        <v>3.67984901633315e-07</v>
+        <v>3.82340232578105e-07</v>
       </c>
       <c r="O72">
-        <v>0.465792</v>
+        <v>0.465835</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>3_50139142_A_G</t>
+          <t>3_50138580_CTAGT_C</t>
         </is>
       </c>
     </row>
@@ -5347,18 +5348,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rs5848905</t>
+          <t>rs2856234</t>
         </is>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>50176259</v>
+        <v>50139142</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SEMA3F-AS1</t>
+          <t>RBM5(ENST00000469838.5:c.*1635A&gt;G)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5367,7 +5368,7 @@
         </is>
       </c>
       <c r="G73">
-        <v>50138826</v>
+        <v>50101709</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -5376,30 +5377,30 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J73">
-        <v>0.00123068590057978</v>
+        <v>0.00732528422940168</v>
       </c>
       <c r="K73">
-        <v>-0.0867599</v>
+        <v>-0.09238979999999999</v>
       </c>
       <c r="L73">
-        <v>0.0185602</v>
+        <v>0.0181792</v>
       </c>
       <c r="M73">
-        <v>0.448548</v>
+        <v>0.465792</v>
       </c>
       <c r="N73">
-        <v>2.89654313267484e-06</v>
+        <v>3.67984901633315e-07</v>
       </c>
       <c r="O73">
-        <v>0.448548</v>
+        <v>0.465792</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>3_50176259_A_AG</t>
+          <t>3_50139142_A_G</t>
         </is>
       </c>
     </row>
@@ -5411,18 +5412,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>rs76130291</t>
+          <t>rs5848905</t>
         </is>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>50336147</v>
+        <v>50176259</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>HYAL3,NAA80</t>
+          <t>SEMA3F-AS1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5431,39 +5432,39 @@
         </is>
       </c>
       <c r="G74">
-        <v>50298716</v>
+        <v>50138826</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="J74">
-        <v>0.00342744150832606</v>
+        <v>0.00123068590057978</v>
       </c>
       <c r="K74">
-        <v>-0.219544</v>
+        <v>-0.0867599</v>
       </c>
       <c r="L74">
-        <v>0.0831414</v>
+        <v>0.0185602</v>
       </c>
       <c r="M74">
-        <v>0.0151907</v>
+        <v>0.448548</v>
       </c>
       <c r="N74">
-        <v>0.0069536047290792</v>
+        <v>2.89654313267484e-06</v>
       </c>
       <c r="O74">
-        <v>0.0151907</v>
+        <v>0.448548</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>3_50336147_C_T</t>
+          <t>3_50176259_A_AG</t>
         </is>
       </c>
     </row>
@@ -5475,57 +5476,121 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>rs76130291</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>50336147</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>HYAL3,NAA80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>inscores.aPCs</t>
+        </is>
+      </c>
+      <c r="G75">
+        <v>50298716</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J75">
+        <v>0.00342744150832606</v>
+      </c>
+      <c r="K75">
+        <v>-0.219544</v>
+      </c>
+      <c r="L75">
+        <v>0.0831414</v>
+      </c>
+      <c r="M75">
+        <v>0.0151907</v>
+      </c>
+      <c r="N75">
+        <v>0.0069536047290792</v>
+      </c>
+      <c r="O75">
+        <v>0.0151907</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>3_50336147_C_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3_rs778801698_49524027_50524027</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>rs76985526</t>
         </is>
       </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
         <v>50477923</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>CACNA2D2</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>inscores.aPCs</t>
         </is>
       </c>
-      <c r="G75">
+      <c r="G76">
         <v>50440492</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J75">
+      <c r="J76">
         <v>0.00233641141651293</v>
       </c>
-      <c r="K75">
+      <c r="K76">
         <v>-0.192069</v>
       </c>
-      <c r="L75">
+      <c r="L76">
         <v>0.07539999999999999</v>
       </c>
-      <c r="M75">
+      <c r="M76">
         <v>0.0160573</v>
       </c>
-      <c r="N75">
+      <c r="N76">
         <v>0.0108550043043033</v>
       </c>
-      <c r="O75">
+      <c r="O76">
         <v>0.0160573</v>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>3_50477923_T_C</t>
         </is>
@@ -11360,7 +11425,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11439,25 +11504,20 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_gtex</t>
+          <t>sentinel_ubclung</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_ubclung</t>
+          <t>gene</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>gene</t>
+          <t>tissue</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>evidence</t>
         </is>
@@ -11523,20 +11583,15 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
+          <t>RBM6</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RBM6</t>
+          <t>ubclung</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
-        <is>
-          <t>ubclung</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
         <is>
           <t>eqtl_ubclung</t>
         </is>
@@ -11549,7 +11604,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11628,70 +11683,65 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_gtex</t>
+          <t>sentinel_ubclung</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_ubclung</t>
+          <t>sentinel_ukbpqtl</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_ukbpqtl</t>
+          <t>gene</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>gene</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ALLELE0</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>ALLELE0</t>
+          <t>ALLELE1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>ALLELE1</t>
+          <t>A1FREQ</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>A1FREQ</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>BETA</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>BETA</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>LOG10P</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>LOG10P</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>evidence</t>
         </is>
@@ -11757,53 +11807,48 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3_49800212_C_CT</t>
+          <t>SA_3_49762779</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>SA_3_49762779</t>
+          <t>TDGF1</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>TDGF1</t>
+          <t>rs11716895</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>rs11716895</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
+      <c r="U2">
+        <v>0.0153587</v>
+      </c>
       <c r="V2">
-        <v>0.0153587</v>
+        <v>0.995802</v>
       </c>
       <c r="W2">
-        <v>0.995802</v>
+        <v>46011</v>
       </c>
       <c r="X2">
-        <v>46011</v>
+        <v>-0.225271</v>
       </c>
       <c r="Y2">
-        <v>-0.225271</v>
+        <v>0.0430618</v>
       </c>
       <c r="Z2">
-        <v>0.0430618</v>
-      </c>
-      <c r="AA2">
         <v>6.77395</v>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>pqtl_ukb</t>
         </is>
@@ -11869,53 +11914,48 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3_49800212_C_CT</t>
+          <t>SA_3_49762779</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>SA_3_49762779</t>
+          <t>MST1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>MST1</t>
+          <t>rs11716895</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>rs11716895</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
+      <c r="U3">
+        <v>0.0154702</v>
+      </c>
       <c r="V3">
-        <v>0.0154702</v>
+        <v>0.995941</v>
       </c>
       <c r="W3">
-        <v>0.995941</v>
+        <v>39956</v>
       </c>
       <c r="X3">
-        <v>39956</v>
+        <v>-1.26046</v>
       </c>
       <c r="Y3">
-        <v>-1.26046</v>
+        <v>0.0191896</v>
       </c>
       <c r="Z3">
-        <v>0.0191896</v>
-      </c>
-      <c r="AA3">
         <v>938.785</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>pqtl_ukb</t>
         </is>
@@ -11981,53 +12021,48 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>3_49800212_C_CT</t>
+          <t>SA_3_49762779</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>SA_3_49762779</t>
+          <t>SHISA5</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>SHISA5</t>
+          <t>rs11716895</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>rs11716895</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
+      <c r="U4">
+        <v>0.0153945</v>
+      </c>
       <c r="V4">
-        <v>0.0153945</v>
+        <v>0.995753</v>
       </c>
       <c r="W4">
-        <v>0.995753</v>
+        <v>40526</v>
       </c>
       <c r="X4">
-        <v>40526</v>
+        <v>0.0616495</v>
       </c>
       <c r="Y4">
-        <v>0.0616495</v>
+        <v>0.0077033</v>
       </c>
       <c r="Z4">
-        <v>0.0077033</v>
-      </c>
-      <c r="AA4">
         <v>14.9157</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>pqtl_ukb</t>
         </is>
@@ -12093,53 +12128,48 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
+          <t>SA_3_49986594</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>SA_3_49986594</t>
+          <t>MST1</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>MST1</t>
+          <t>rs561445398</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>rs561445398</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
           <t>G</t>
         </is>
       </c>
+      <c r="U5">
+        <v>0.000640312</v>
+      </c>
       <c r="V5">
-        <v>0.000640312</v>
+        <v>0.900489</v>
       </c>
       <c r="W5">
-        <v>0.900489</v>
+        <v>39956</v>
       </c>
       <c r="X5">
-        <v>39956</v>
+        <v>-1.23393</v>
       </c>
       <c r="Y5">
-        <v>-1.23393</v>
+        <v>0.0982044</v>
       </c>
       <c r="Z5">
-        <v>0.0982044</v>
-      </c>
-      <c r="AA5">
         <v>35.4828</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>pqtl_ukb</t>
         </is>
@@ -12205,53 +12235,48 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3_50049299_G_T</t>
+          <t>SA_3_50011866</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>SA_3_50011866</t>
+          <t>NARS1</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>NARS1</t>
+          <t>rs574179166</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>rs574179166</t>
+          <t>G</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
+      <c r="U6">
+        <v>8.52599e-05</v>
+      </c>
       <c r="V6">
-        <v>8.52599e-05</v>
+        <v>0.161636</v>
       </c>
       <c r="W6">
-        <v>0.161636</v>
+        <v>40453</v>
       </c>
       <c r="X6">
-        <v>40453</v>
+        <v>-1.904</v>
       </c>
       <c r="Y6">
-        <v>-1.904</v>
+        <v>0.458598</v>
       </c>
       <c r="Z6">
-        <v>0.458598</v>
-      </c>
-      <c r="AA6">
         <v>4.48163</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>pqtl_ukb</t>
         </is>
@@ -12317,53 +12342,48 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3_50049299_G_T</t>
+          <t>SA_3_50011866</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>SA_3_50011866</t>
+          <t>PRKAR2A</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>PRKAR2A</t>
+          <t>rs574179166</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>rs574179166</t>
+          <t>G</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
+      <c r="U7">
+        <v>8.51416e-05</v>
+      </c>
       <c r="V7">
-        <v>8.51416e-05</v>
+        <v>0.16219</v>
       </c>
       <c r="W7">
-        <v>0.16219</v>
+        <v>40348</v>
       </c>
       <c r="X7">
-        <v>40348</v>
+        <v>-5.60746</v>
       </c>
       <c r="Y7">
-        <v>-5.60746</v>
+        <v>0.798736</v>
       </c>
       <c r="Z7">
-        <v>0.798736</v>
-      </c>
-      <c r="AA7">
         <v>11.6552</v>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>pqtl_ukb</t>
         </is>
@@ -12376,7 +12396,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12455,40 +12475,35 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_gtex</t>
+          <t>sentinel_ubclung</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_ubclung</t>
+          <t>gene</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>gene</t>
+          <t>frequency_disease</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>frequency_disease</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>name_disease</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>name_disease</t>
+          <t>HPOterm</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>HPOterm</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>evidence</t>
         </is>
@@ -12554,28 +12569,23 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
+          <t>ZMYND10</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>ZMYND10</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
           <t>Disease name, obligate or very frequent</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="R2">
         <v>354516</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Primary ciliary dyskinesia</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>rare_disease</t>
         </is>
@@ -12588,7 +12598,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12667,50 +12677,45 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_gtex</t>
+          <t>sentinel_ubclung</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>sentinel_ubclung</t>
+          <t>gene</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>gene</t>
+          <t>txStart</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>txStart</t>
+          <t>txEnd</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>txEnd</t>
+          <t>width</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>mouse_symbol</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>mouse_symbol</t>
+          <t>mp_term_name</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>mp_term_name</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>evidence</t>
         </is>
@@ -12776,37 +12781,32 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
           <t>CACNA2D2</t>
         </is>
       </c>
+      <c r="Q2">
+        <v>50400043</v>
+      </c>
       <c r="R2">
-        <v>50400043</v>
+        <v>50541675</v>
       </c>
       <c r="S2">
-        <v>50541675</v>
+        <v>141633</v>
       </c>
       <c r="T2">
-        <v>141633</v>
-      </c>
-      <c r="U2">
         <v>376016</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Cacna2d2</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Cacna2d2</t>
+          <t>increased spleen weight</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
-        <is>
-          <t>increased spleen weight</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
         <is>
           <t>mouse_ko</t>
         </is>
@@ -12872,37 +12872,32 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
           <t>CACNA2D2</t>
         </is>
       </c>
+      <c r="Q3">
+        <v>50400043</v>
+      </c>
       <c r="R3">
-        <v>50400043</v>
+        <v>50541675</v>
       </c>
       <c r="S3">
-        <v>50541675</v>
+        <v>141633</v>
       </c>
       <c r="T3">
-        <v>141633</v>
-      </c>
-      <c r="U3">
         <v>376016</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Cacna2d2</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Cacna2d2</t>
+          <t>abnormal spleen morphology</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
-        <is>
-          <t>abnormal spleen morphology</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
         <is>
           <t>mouse_ko</t>
         </is>
@@ -12968,37 +12963,32 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
           <t>CACNA2D2</t>
         </is>
       </c>
+      <c r="Q4">
+        <v>50400043</v>
+      </c>
       <c r="R4">
-        <v>50400043</v>
+        <v>50541675</v>
       </c>
       <c r="S4">
-        <v>50541675</v>
+        <v>141633</v>
       </c>
       <c r="T4">
-        <v>141633</v>
-      </c>
-      <c r="U4">
         <v>376016</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Cacna2d2</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Cacna2d2</t>
+          <t>enlarged spleen</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
-        <is>
-          <t>enlarged spleen</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
         <is>
           <t>mouse_ko</t>
         </is>
@@ -13064,37 +13054,32 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
           <t>CACNA2D2</t>
         </is>
       </c>
+      <c r="Q5">
+        <v>50400043</v>
+      </c>
       <c r="R5">
-        <v>50400043</v>
+        <v>50541675</v>
       </c>
       <c r="S5">
-        <v>50541675</v>
+        <v>141633</v>
       </c>
       <c r="T5">
-        <v>141633</v>
-      </c>
-      <c r="U5">
         <v>376016</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Cacna2d2</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Cacna2d2</t>
+          <t>small spleen</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
-        <is>
-          <t>small spleen</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
         <is>
           <t>mouse_ko</t>
         </is>
@@ -13160,37 +13145,32 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
           <t>CYB561D2</t>
         </is>
       </c>
+      <c r="Q6">
+        <v>50388292</v>
+      </c>
       <c r="R6">
-        <v>50388292</v>
+        <v>50405628</v>
       </c>
       <c r="S6">
-        <v>50405628</v>
+        <v>17337</v>
       </c>
       <c r="T6">
-        <v>17337</v>
-      </c>
-      <c r="U6">
         <v>364265</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Cyb561d2</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Cyb561d2</t>
+          <t>abnormal spleen morphology</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
-        <is>
-          <t>abnormal spleen morphology</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
         <is>
           <t>mouse_ko</t>
         </is>
@@ -13256,37 +13236,32 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3_50024027_C_CA</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
           <t>CYB561D2</t>
         </is>
       </c>
+      <c r="Q7">
+        <v>50388292</v>
+      </c>
       <c r="R7">
-        <v>50388292</v>
+        <v>50405628</v>
       </c>
       <c r="S7">
-        <v>50405628</v>
+        <v>17337</v>
       </c>
       <c r="T7">
-        <v>17337</v>
-      </c>
-      <c r="U7">
         <v>364265</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Cyb561d2</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Cyb561d2</t>
+          <t>abnormal spleen morphology</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
-        <is>
-          <t>abnormal spleen morphology</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
         <is>
           <t>mouse_ko</t>
         </is>
@@ -13352,39 +13327,345 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>GNAI2</t>
+        </is>
+      </c>
+      <c r="Q8">
+        <v>50264499</v>
+      </c>
+      <c r="R8">
+        <v>50296794</v>
+      </c>
+      <c r="S8">
+        <v>32296</v>
+      </c>
+      <c r="T8">
+        <v>240472</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Gnai1</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>abnormal spleen morphology</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>mouse_ko</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>locus</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>snpid</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>chr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>posb37</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>posb38</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PIP_average</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LOG_ODDS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eaf</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>pval</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sentinel</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sentinel_ubclung</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ENSGID</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>PoPS_score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>gene_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>prioritized</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Feature1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Feature2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Feature3</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Feature4</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Feature5</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Feature6</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Feature7</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Feature8</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Feature9</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Feature10</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>gene_strand</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3_rs778801698_49524027_50524027</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rs778801698</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>50024027</v>
+      </c>
+      <c r="E2">
+        <v>49986594</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>0.113624563121357</v>
+      </c>
+      <c r="I2">
+        <v>0.107858</v>
+      </c>
+      <c r="J2">
+        <v>0.0192236</v>
+      </c>
+      <c r="K2">
+        <v>0.565491</v>
+      </c>
+      <c r="L2">
+        <v>1.93263571048209e-08</v>
+      </c>
+      <c r="M2">
+        <v>0.434509</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3_50024027_CA_C</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>3_50024027_C_CA</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>GNAI2</t>
-        </is>
-      </c>
-      <c r="R8">
-        <v>50264499</v>
-      </c>
-      <c r="S8">
-        <v>50296794</v>
-      </c>
-      <c r="T8">
-        <v>32296</v>
-      </c>
-      <c r="U8">
-        <v>240472</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Gnai1</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>abnormal spleen morphology</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>mouse_ko</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>RBM6</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>ENSG00000004534</t>
+        </is>
+      </c>
+      <c r="R2">
+        <v>0.454640396848811</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>human_lung_diffexprs_genes_clusters_pre_def.36</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>human_kidney_projected_pcaloadings.29</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>human_colon_projected_icaloadings.6</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>mouse_endothelium_projected_pcaloadings_clusters.276</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>mouse_heart_control_projected_pcaloadings_clusters.98</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>mouse_endothelium_projected_pcaloadings_clusters.350</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>human_retina2_projected_pcaloadings_clusters.84</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>human_muscle_projected_pcaloadings.95</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>human_kidney3_projected_pcaloadings_clusters.31</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>human_kidney3_average_expression.4</t>
+        </is>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>pops</t>
         </is>
       </c>
     </row>
